--- a/data/output/FV2410_FV2404/UTILMD/55157.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55157.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="396">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4681" uniqueCount="396">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1310,6 +1310,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U205" totalsRowShown="0">
+  <autoFilter ref="A1:U205"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1599,7 +1629,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11565,5 +11598,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55157.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55157.xlsx
@@ -2332,7 +2332,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4874,7 +4874,7 @@
         <v>373</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5040,7 +5040,7 @@
         <v>374</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5260,7 +5260,7 @@
         <v>373</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5856,7 +5856,7 @@
         <v>373</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6164,7 +6164,7 @@
         <v>377</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6650,7 +6650,7 @@
         <v>381</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7166,7 +7166,7 @@
         <v>383</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7366,7 +7366,7 @@
         <v>383</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7566,7 +7566,7 @@
         <v>384</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7874,7 +7874,7 @@
         <v>385</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8178,7 +8178,7 @@
         <v>386</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8994,7 +8994,7 @@
         <v>388</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9206,7 +9206,7 @@
         <v>389</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9514,7 +9514,7 @@
         <v>390</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9780,7 +9780,7 @@
         <v>387</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10038,7 +10038,7 @@
         <v>391</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10762,7 +10762,7 @@
         <v>394</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11722,7 +11722,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -12144,7 +12144,7 @@
         <v>396</v>
       </c>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12292,7 +12292,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -12450,7 +12450,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="K203" s="2"/>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N203" s="2"/>
